--- a/auto_run.xlsx
+++ b/auto_run.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\self\tool-test-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3DEFAE-37BD-400C-A588-8622FA939B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130D7491-F1AF-4281-8235-1C430847F172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A25835E8-D79B-48A0-B570-542128226B4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{A25835E8-D79B-48A0-B570-542128226B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="configure" sheetId="1" r:id="rId1"/>
@@ -45,19 +45,19 @@
     <t>site_dev</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>/about</t>
-  </si>
-  <si>
     <t>slug</t>
   </si>
   <si>
     <t>https://www.nybgplasticsurgery.com</t>
   </si>
   <si>
-    <t>http://plasticsurgery-06-2025.local</t>
+    <t>https://plasticsurgery-develop.box.gravityapps.net</t>
+  </si>
+  <si>
+    <t>/about/meet-dr-shafqat/</t>
+  </si>
+  <si>
+    <t>/about/ambulatory-surgery-center/</t>
   </si>
 </sst>
 </file>
@@ -451,17 +451,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3F68DA-0BA9-43E3-AA60-4F76330151D7}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.90625" customWidth="1"/>
-    <col min="2" max="2" width="37.7265625" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,18 +469,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{5C188A42-0025-4804-AB7D-87991DA4E86F}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{4BDBB3DE-7BF2-452B-A30A-8C489FD27F6C}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{21456367-B40A-40FD-97BB-A8596DC1D95C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -490,28 +490,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC20F726-6112-416A-944E-1C9A05F3DBD2}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
